--- a/upload/order.xlsx
+++ b/upload/order.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>当前日期</t>
   </si>
@@ -34,19 +34,13 @@
     <t>托含量</t>
   </si>
   <si>
-    <t>箱/拍</t>
-  </si>
-  <si>
     <t>预约数量</t>
   </si>
   <si>
     <t>预约拍数</t>
   </si>
   <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>2022.9.3</t>
+    <t>2022.10.27</t>
   </si>
   <si>
     <t>原料</t>
@@ -55,28 +49,70 @@
     <t>进口</t>
   </si>
   <si>
-    <t>印尼优选可可浆</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>无水奶油</t>
-  </si>
-  <si>
-    <t>未完成</t>
-  </si>
-  <si>
-    <t>的盛世嫡妃</t>
-  </si>
-  <si>
-    <t>对方的</t>
-  </si>
-  <si>
-    <t>地方</t>
-  </si>
-  <si>
-    <t>订单</t>
+    <t>大豆蛋白脆</t>
+  </si>
+  <si>
+    <t>脱脂乳粉</t>
+  </si>
+  <si>
+    <t>可可浆</t>
+  </si>
+  <si>
+    <t>吉贝可可</t>
+  </si>
+  <si>
+    <t>脱臭可可脂</t>
+  </si>
+  <si>
+    <t>瑞华和信</t>
+  </si>
+  <si>
+    <t>乳糖</t>
+  </si>
+  <si>
+    <t>翱兰上海商贸</t>
+  </si>
+  <si>
+    <t>2022.10.31</t>
+  </si>
+  <si>
+    <t>益海嘉里</t>
+  </si>
+  <si>
+    <t>RSPO.MB类可可脂</t>
+  </si>
+  <si>
+    <t>牧工商</t>
+  </si>
+  <si>
+    <t>全脂奶粉</t>
+  </si>
+  <si>
+    <t>中粮</t>
+  </si>
+  <si>
+    <t>脱皮半粒花生</t>
+  </si>
+  <si>
+    <t>不二制油</t>
+  </si>
+  <si>
+    <t>2022.10.28</t>
+  </si>
+  <si>
+    <t>RSPO-MB巧克力植物软油</t>
+  </si>
+  <si>
+    <t>脱脂奶粉</t>
+  </si>
+  <si>
+    <t>非氢化煎炸油</t>
+  </si>
+  <si>
+    <t>嘉里</t>
+  </si>
+  <si>
+    <t>福德隆</t>
   </si>
 </sst>
 </file>
@@ -1082,15 +1118,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD8"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1115,185 +1151,149 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2">
+        <v>1466750</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2">
+        <v>288</v>
+      </c>
+      <c r="G2">
+        <v>4896</v>
+      </c>
+      <c r="H2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>1095502</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>1280436</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F3">
+        <v>600</v>
+      </c>
+      <c r="G3">
+        <v>40200</v>
+      </c>
+      <c r="H3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>1147354</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F2">
+      <c r="F4">
         <v>1000</v>
       </c>
-      <c r="G2">
+      <c r="G4">
+        <v>40000</v>
+      </c>
+      <c r="H4">
         <v>40</v>
       </c>
-      <c r="H2">
-        <v>5000</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>1481582</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>1000</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>20000</v>
-      </c>
-      <c r="I3">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>515</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>54</v>
-      </c>
-      <c r="G4">
-        <v>51</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>45</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
       <c r="D5">
-        <v>1481582</v>
+        <v>1180616</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>20700</v>
       </c>
       <c r="H5">
-        <v>20000</v>
-      </c>
-      <c r="I5">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
       <c r="D6">
-        <v>1481582</v>
+        <v>1014355</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>1000</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="H6">
-        <v>20000</v>
-      </c>
-      <c r="I6">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>1280436</v>
+        <v>1216784</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1302,55 +1302,277 @@
         <v>1000</v>
       </c>
       <c r="G7">
-        <v>40</v>
+        <v>21000</v>
       </c>
       <c r="H7">
-        <v>5000</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>1280436</v>
+        <v>1095457</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>1000</v>
       </c>
       <c r="G8">
+        <v>40000</v>
+      </c>
+      <c r="H8">
         <v>40</v>
       </c>
-      <c r="H8">
-        <v>5000</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>1265228</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="G9">
+        <v>20000</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>1095494</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10">
+        <v>500</v>
+      </c>
+      <c r="G10">
+        <v>26000</v>
+      </c>
+      <c r="H10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>1095499</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>800</v>
+      </c>
+      <c r="G11">
+        <v>28800</v>
+      </c>
+      <c r="H11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>1265228</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+      <c r="G12">
+        <v>40000</v>
+      </c>
+      <c r="H12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>1299719</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+      <c r="G13">
+        <v>20000</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>1095502</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14">
+        <v>500</v>
+      </c>
+      <c r="G14">
+        <v>30000</v>
+      </c>
+      <c r="H14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>1432684</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>900</v>
+      </c>
+      <c r="G15">
+        <v>16200</v>
+      </c>
+      <c r="H15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>1095499</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>800</v>
+      </c>
+      <c r="G16">
+        <v>28800</v>
+      </c>
+      <c r="H16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>1095499</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>800</v>
+      </c>
+      <c r="G17">
+        <v>28800</v>
+      </c>
+      <c r="H17">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F7 B8:F8 A9:F9 B10:F10 A11:F11 B12:F12 A13:F14 B15:F15 B16:F16 B17:F17" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/upload/order.xlsx
+++ b/upload/order.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>当前日期</t>
   </si>
@@ -34,13 +34,13 @@
     <t>托含量</t>
   </si>
   <si>
-    <t>预约数量</t>
+    <t>预约数量（kg）</t>
   </si>
   <si>
     <t>预约拍数</t>
   </si>
   <si>
-    <t>2022.10.27</t>
+    <t>2022.10.31</t>
   </si>
   <si>
     <t>原料</t>
@@ -49,12 +49,6 @@
     <t>进口</t>
   </si>
   <si>
-    <t>大豆蛋白脆</t>
-  </si>
-  <si>
-    <t>脱脂乳粉</t>
-  </si>
-  <si>
     <t>可可浆</t>
   </si>
   <si>
@@ -64,55 +58,37 @@
     <t>脱臭可可脂</t>
   </si>
   <si>
-    <t>瑞华和信</t>
-  </si>
-  <si>
-    <t>乳糖</t>
-  </si>
-  <si>
-    <t>翱兰上海商贸</t>
-  </si>
-  <si>
-    <t>2022.10.31</t>
+    <t>2022.11.2</t>
+  </si>
+  <si>
+    <t>不二制油</t>
+  </si>
+  <si>
+    <t>RSPO.MB夹心油</t>
+  </si>
+  <si>
+    <t>RSPO.MB类可可脂</t>
   </si>
   <si>
     <t>益海嘉里</t>
   </si>
   <si>
-    <t>RSPO.MB类可可脂</t>
-  </si>
-  <si>
-    <t>牧工商</t>
-  </si>
-  <si>
-    <t>全脂奶粉</t>
+    <t>RSPO-MB巧克力植物软油</t>
   </si>
   <si>
     <t>中粮</t>
   </si>
   <si>
+    <t>小料</t>
+  </si>
+  <si>
+    <t>嘉里</t>
+  </si>
+  <si>
     <t>脱皮半粒花生</t>
   </si>
   <si>
-    <t>不二制油</t>
-  </si>
-  <si>
-    <t>2022.10.28</t>
-  </si>
-  <si>
-    <t>RSPO-MB巧克力植物软油</t>
-  </si>
-  <si>
-    <t>脱脂奶粉</t>
-  </si>
-  <si>
-    <t>非氢化煎炸油</t>
-  </si>
-  <si>
-    <t>嘉里</t>
-  </si>
-  <si>
-    <t>福德隆</t>
+    <t>2022.11.1</t>
   </si>
 </sst>
 </file>
@@ -1118,10 +1094,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1163,19 +1139,19 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>1466750</v>
+        <v>1147354</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2">
-        <v>288</v>
+        <v>1000</v>
       </c>
       <c r="G2">
-        <v>4896</v>
+        <v>80000</v>
       </c>
       <c r="H2">
-        <v>17</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1186,48 +1162,48 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>1095502</v>
+        <v>1180616</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G3">
-        <v>40200</v>
+        <v>20700</v>
       </c>
       <c r="H3">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>1147354</v>
+        <v>1263959</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>1000</v>
+        <v>864</v>
       </c>
       <c r="G4">
-        <v>40000</v>
+        <v>10368</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1238,48 +1214,48 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>1180616</v>
+        <v>1265228</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G5">
-        <v>20700</v>
+        <v>20000</v>
       </c>
       <c r="H5">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>1014355</v>
+        <v>1275243</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F6">
         <v>1000</v>
       </c>
       <c r="G6">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="H6">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1293,45 +1269,42 @@
         <v>18</v>
       </c>
       <c r="D7">
-        <v>1216784</v>
+        <v>1299719</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F7">
         <v>1000</v>
       </c>
       <c r="G7">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H7">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>1095457</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G8">
-        <v>40000</v>
+        <v>7000</v>
       </c>
       <c r="H8">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1342,65 +1315,65 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>1265228</v>
+        <v>1095499</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G9">
-        <v>20000</v>
+        <v>28800</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>1095494</v>
+        <v>1265228</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F10">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G10">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="H10">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>1095499</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11">
         <v>800</v>
@@ -1409,162 +1382,6 @@
         <v>28800</v>
       </c>
       <c r="H11">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12">
-        <v>1265228</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12">
-        <v>1000</v>
-      </c>
-      <c r="G12">
-        <v>40000</v>
-      </c>
-      <c r="H12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>1299719</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13">
-        <v>1000</v>
-      </c>
-      <c r="G13">
-        <v>20000</v>
-      </c>
-      <c r="H13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14">
-        <v>1095502</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14">
-        <v>500</v>
-      </c>
-      <c r="G14">
-        <v>30000</v>
-      </c>
-      <c r="H14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>1432684</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15">
-        <v>900</v>
-      </c>
-      <c r="G15">
-        <v>16200</v>
-      </c>
-      <c r="H15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16">
-        <v>1095499</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16">
-        <v>800</v>
-      </c>
-      <c r="G16">
-        <v>28800</v>
-      </c>
-      <c r="H16">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17">
-        <v>1095499</v>
-      </c>
-      <c r="E17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17">
-        <v>800</v>
-      </c>
-      <c r="G17">
-        <v>28800</v>
-      </c>
-      <c r="H17">
         <v>36</v>
       </c>
     </row>
@@ -1572,7 +1389,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F7 B8:F8 A9:F9 B10:F10 A11:F11 B12:F12 A13:F14 B15:F15 B16:F16 B17:F17" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F3 B4:F4 A5:F5 B6:F6 A7:F7 B8:F8 A9:F9 B10:F10 A11:F11" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/upload/order.xlsx
+++ b/upload/order.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="15980" windowHeight="8800"/>
+    <workbookView windowWidth="17080" windowHeight="11600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
   <si>
     <t>当前日期</t>
   </si>
@@ -34,13 +34,13 @@
     <t>托含量</t>
   </si>
   <si>
-    <t>预约数量（kg）</t>
-  </si>
-  <si>
     <t>预约拍数</t>
   </si>
   <si>
-    <t>2022.10.31</t>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>2022.11.17</t>
   </si>
   <si>
     <t>原料</t>
@@ -52,21 +52,27 @@
     <t>可可浆</t>
   </si>
   <si>
+    <t>已完成</t>
+  </si>
+  <si>
     <t>吉贝可可</t>
   </si>
   <si>
     <t>脱臭可可脂</t>
   </si>
   <si>
-    <t>2022.11.2</t>
-  </si>
-  <si>
     <t>不二制油</t>
   </si>
   <si>
     <t>RSPO.MB夹心油</t>
   </si>
   <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>2022.11.15</t>
+  </si>
+  <si>
     <t>RSPO.MB类可可脂</t>
   </si>
   <si>
@@ -82,13 +88,13 @@
     <t>小料</t>
   </si>
   <si>
+    <t>2022.11.16</t>
+  </si>
+  <si>
     <t>嘉里</t>
   </si>
   <si>
     <t>脱皮半粒花生</t>
-  </si>
-  <si>
-    <t>2022.11.1</t>
   </si>
 </sst>
 </file>
@@ -709,8 +715,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1097,7 +1104,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1129,7 +1136,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
@@ -1148,41 +1155,41 @@
         <v>1000</v>
       </c>
       <c r="G2">
-        <v>80000</v>
-      </c>
-      <c r="H2">
         <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>1180616</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>900</v>
       </c>
       <c r="G3">
-        <v>20700</v>
-      </c>
-      <c r="H3">
         <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>14</v>
+      <c r="A4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1200,15 +1207,15 @@
         <v>864</v>
       </c>
       <c r="G4">
-        <v>10368</v>
-      </c>
-      <c r="H4">
         <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>8</v>
+      <c r="A5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1220,122 +1227,122 @@
         <v>1265228</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5">
         <v>1000</v>
       </c>
       <c r="G5">
-        <v>20000</v>
-      </c>
-      <c r="H5">
         <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>14</v>
+      <c r="A6" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>1275243</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>1000</v>
       </c>
       <c r="G6">
-        <v>20000</v>
-      </c>
-      <c r="H6">
         <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>1299719</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>1000</v>
       </c>
       <c r="G7">
-        <v>20000</v>
-      </c>
-      <c r="H7">
         <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>14</v>
+      <c r="A8" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8">
         <v>500</v>
       </c>
       <c r="G8">
-        <v>7000</v>
-      </c>
-      <c r="H8">
         <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>1095499</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9">
         <v>800</v>
       </c>
       <c r="G9">
-        <v>28800</v>
-      </c>
-      <c r="H9">
         <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>14</v>
+      <c r="A10" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1347,49 +1354,49 @@
         <v>1265228</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F10">
         <v>1000</v>
       </c>
       <c r="G10">
-        <v>20000</v>
-      </c>
-      <c r="H10">
         <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>24</v>
+      <c r="A11" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>1095499</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F11">
         <v>800</v>
       </c>
       <c r="G11">
-        <v>28800</v>
-      </c>
-      <c r="H11">
         <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F3 B4:F4 A5:F5 B6:F6 A7:F7 B8:F8 A9:F9 B10:F10 A11:F11" numberStoredAsText="1"/>
+    <ignoredError sqref="B11:F11 B10:F10 B9:F9 B8:F8 B7:F7 B6:F6 B5:F5 B4:F4 B2:F2 A1:F1 B3:F3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/upload/order.xlsx
+++ b/upload/order.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="17080" windowHeight="11600"/>
+    <workbookView windowWidth="17040" windowHeight="11600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>当前日期</t>
   </si>
@@ -55,12 +55,18 @@
     <t>已完成</t>
   </si>
   <si>
+    <t>2022.11.21</t>
+  </si>
+  <si>
     <t>吉贝可可</t>
   </si>
   <si>
     <t>脱臭可可脂</t>
   </si>
   <si>
+    <t>2022.11.18</t>
+  </si>
+  <si>
     <t>不二制油</t>
   </si>
   <si>
@@ -68,9 +74,6 @@
   </si>
   <si>
     <t>未完成</t>
-  </si>
-  <si>
-    <t>2022.11.15</t>
   </si>
   <si>
     <t>RSPO.MB类可可脂</t>
@@ -1104,7 +1107,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1163,19 +1166,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>1180616</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>900</v>
@@ -1189,19 +1192,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>1263959</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>864</v>
@@ -1210,24 +1213,24 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>1265228</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>1000</v>
@@ -1241,19 +1244,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>1275243</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>1000</v>
@@ -1262,7 +1265,7 @@
         <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1273,13 +1276,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>1299719</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7">
         <v>1000</v>
@@ -1288,21 +1291,21 @@
         <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8">
         <v>500</v>
@@ -1311,24 +1314,24 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>1095499</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <v>800</v>
@@ -1337,24 +1340,24 @@
         <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>1265228</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10">
         <v>1000</v>
@@ -1368,19 +1371,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>1095499</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11">
         <v>800</v>
@@ -1389,7 +1392,7 @@
         <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
